--- a/myapp/app-server/data.xlsx
+++ b/myapp/app-server/data.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId6" sheetId="97"/>
-    <sheet name="boards" r:id="rId7" sheetId="98"/>
-    <sheet name="projects" r:id="rId5" sheetId="99"/>
+    <sheet name="users" r:id="rId6" sheetId="94"/>
+    <sheet name="boards" r:id="rId7" sheetId="95"/>
+    <sheet name="projects" r:id="rId5" sheetId="96"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5136" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4877" uniqueCount="142">
   <si>
     <t>no</t>
   </si>
@@ -340,85 +340,106 @@
     <t>user21@test.com</t>
   </si>
   <si>
-    <t>010-1111-0021</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>user@test.com</t>
-  </si>
-  <si>
-    <t>010-1111-1121</t>
+    <t>user22</t>
+  </si>
+  <si>
+    <t>user22@test.co</t>
+  </si>
+  <si>
+    <t>010-1111-3333</t>
+  </si>
+  <si>
+    <t>user21x</t>
+  </si>
+  <si>
+    <t>user21x@test.com</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>user22</t>
-  </si>
-  <si>
-    <t>user22@test.com</t>
-  </si>
-  <si>
-    <t>010-1111-1122</t>
+    <t>user23</t>
+  </si>
+  <si>
+    <t>user23@test.com</t>
   </si>
   <si>
     <t>23</t>
   </si>
   <si>
-    <t>user23</t>
-  </si>
-  <si>
-    <t>user23@test.com</t>
-  </si>
-  <si>
-    <t>010-1111-23</t>
-  </si>
-  <si>
-    <t>p7</t>
-  </si>
-  <si>
-    <t>pp7</t>
-  </si>
-  <si>
-    <t>2025-1-1</t>
-  </si>
-  <si>
-    <t>1,20,21,22,23</t>
+    <t>user24</t>
+  </si>
+  <si>
+    <t>user24@test.com</t>
+  </si>
+  <si>
+    <t>11111</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>user25</t>
+  </si>
+  <si>
+    <t>user25@test.com</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>user26</t>
+  </si>
+  <si>
+    <t>user26@test.com</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>user27</t>
+  </si>
+  <si>
+    <t>user27@test.com</t>
   </si>
   <si>
     <t>8</t>
   </si>
   <si>
-    <t>p8</t>
-  </si>
-  <si>
-    <t>pp8</t>
-  </si>
-  <si>
-    <t>22-12-12</t>
-  </si>
-  <si>
-    <t>9,6,5,2,1</t>
-  </si>
-  <si>
-    <t>p9</t>
-  </si>
-  <si>
-    <t>pp9</t>
-  </si>
-  <si>
-    <t>23-1-1</t>
-  </si>
-  <si>
-    <t>24-1-1</t>
-  </si>
-  <si>
-    <t>22,21,20,18,17,16,15</t>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>hhh</t>
+  </si>
+  <si>
+    <t>2024-07-29 17:31:12</t>
+  </si>
+  <si>
+    <t>ddxx</t>
+  </si>
+  <si>
+    <t>dddxxx</t>
+  </si>
+  <si>
+    <t>iii</t>
+  </si>
+  <si>
+    <t>iiii</t>
+  </si>
+  <si>
+    <t>2024-07-29 17:33:02</t>
+  </si>
+  <si>
+    <t>okok222</t>
+  </si>
+  <si>
+    <t>okokokokok</t>
+  </si>
+  <si>
+    <t>5,6,12,13</t>
   </si>
 </sst>
 </file>
@@ -461,9 +482,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -692,53 +713,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>109</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="0">
-        <v>113</v>
-      </c>
-      <c r="B16" t="s" s="0">
-        <v>114</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>115</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>116</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -746,7 +733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -790,33 +777,33 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>59</v>
@@ -824,33 +811,33 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>59</v>
@@ -858,33 +845,33 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="E8" t="s" s="0">
         <v>59</v>
@@ -895,9 +882,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -965,102 +952,62 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="E5" t="s" s="0">
-        <v>88</v>
-      </c>
       <c r="F5" t="s" s="0">
-        <v>10</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>96</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="F7" t="s" s="0">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>130</v>
-      </c>
-      <c r="C8" t="s" s="0">
-        <v>131</v>
-      </c>
-      <c r="D8" t="s" s="0">
-        <v>132</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>133</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
